--- a/Results/Test_Results.xlsx
+++ b/Results/Test_Results.xlsx
@@ -8,13 +8,17 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\caoan\OneDrive\Desktop\WSS-Mini-Project\Results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C6C8768A-9F4B-490A-953D-4E1D36568BA4}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19B3F4DF-880B-4E01-89D3-54CD3E209E2E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9060" xr2:uid="{753AAF0B-944C-4237-A3A6-2CBBD4296279}"/>
   </bookViews>
   <sheets>
     <sheet name="Ark1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlchart.v1.0" hidden="1">'Ark1'!$E$77</definedName>
+    <definedName name="_xlchart.v1.1" hidden="1">'Ark1'!$H$78</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -30,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="33">
   <si>
     <t>LQI for C: 108</t>
   </si>
@@ -108,6 +112,27 @@
   </si>
   <si>
     <t>70 cm</t>
+  </si>
+  <si>
+    <t>Packet lost</t>
+  </si>
+  <si>
+    <t>Packet received</t>
+  </si>
+  <si>
+    <t>Total packets</t>
+  </si>
+  <si>
+    <t>PRR</t>
+  </si>
+  <si>
+    <t>Hop count</t>
+  </si>
+  <si>
+    <t>Relay</t>
+  </si>
+  <si>
+    <t>No relay</t>
   </si>
 </sst>
 </file>
@@ -730,7 +755,394 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="da-DK"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="da-DK"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Ark1'!$H$74</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Relay</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>'Ark1'!$H$75:$H$78</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>89.600000000000009</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>82.199999999999989</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>86.7</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>90.8</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-E00D-47C8-B2D0-8CC7D9A61C1F}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Ark1'!$I$74</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>No relay</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>'Ark1'!$I$75:$I$78</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>93.373000000000005</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>82.7</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>67.954999999999998</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>49</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-E00D-47C8-B2D0-8CC7D9A61C1F}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="1248223167"/>
+        <c:axId val="1277195791"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="1248223167"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="1"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="@" sourceLinked="0"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="1277195791"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="0"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1277195791"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="da-DK"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="da-DK"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1248223167"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="da-DK"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="da-DK"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+  <c:userShapes r:id="rId3"/>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -1286,6 +1698,509 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
@@ -1324,7 +2239,200 @@
     </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>594360</xdr:colOff>
+      <xdr:row>68</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>45720</xdr:colOff>
+      <xdr:row>85</xdr:row>
+      <xdr:rowOff>121920</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Diagram 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{ACD2D436-D4FE-472B-B859-E21E19E65572}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>220980</xdr:colOff>
+      <xdr:row>84</xdr:row>
+      <xdr:rowOff>167640</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>87</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="6" name="Tekstfelt 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2A20B079-D93C-4EAD-A65C-92C410EACFF3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8755380" y="15529560"/>
+          <a:ext cx="426720" cy="533400"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="da-DK" sz="1100"/>
+            <a:t>50</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:userShapes xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart">
+  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
+    <cdr:from>
+      <cdr:x>0.215</cdr:x>
+      <cdr:y>0.93333</cdr:y>
+    </cdr:from>
+    <cdr:to>
+      <cdr:x>0.30333</cdr:x>
+      <cdr:y>1</cdr:y>
+    </cdr:to>
+    <cdr:sp macro="" textlink="">
+      <cdr:nvSpPr>
+        <cdr:cNvPr id="2" name="Tekstfelt 1">
+          <a:extLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8F286073-E5B6-4880-B408-045FA41EC3AB}"/>
+            </a:ext>
+          </a:extLst>
+        </cdr:cNvPr>
+        <cdr:cNvSpPr txBox="1"/>
+      </cdr:nvSpPr>
+      <cdr:spPr>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:off x="982980" y="2752344"/>
+          <a:ext cx="403860" cy="196596"/>
+        </a:xfrm>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </cdr:spPr>
+      <cdr:txBody>
+        <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" vertOverflow="clip" wrap="square" rtlCol="0"/>
+        <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:r>
+            <a:rPr lang="da-DK" sz="1100"/>
+            <a:t>30</a:t>
+          </a:r>
+        </a:p>
+      </cdr:txBody>
+    </cdr:sp>
+  </cdr:relSizeAnchor>
+  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
+    <cdr:from>
+      <cdr:x>0.44167</cdr:x>
+      <cdr:y>0.93282</cdr:y>
+    </cdr:from>
+    <cdr:to>
+      <cdr:x>0.545</cdr:x>
+      <cdr:y>0.9845</cdr:y>
+    </cdr:to>
+    <cdr:sp macro="" textlink="">
+      <cdr:nvSpPr>
+        <cdr:cNvPr id="3" name="Tekstfelt 2">
+          <a:extLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{783FE082-8D77-4DD7-B65F-81F1DB706148}"/>
+            </a:ext>
+          </a:extLst>
+        </cdr:cNvPr>
+        <cdr:cNvSpPr txBox="1"/>
+      </cdr:nvSpPr>
+      <cdr:spPr>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:off x="2019300" y="2750820"/>
+          <a:ext cx="472440" cy="152400"/>
+        </a:xfrm>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </cdr:spPr>
+      <cdr:txBody>
+        <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" vertOverflow="clip" wrap="square" rtlCol="0"/>
+        <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:r>
+            <a:rPr lang="da-DK" sz="1100"/>
+            <a:t>40</a:t>
+          </a:r>
+        </a:p>
+      </cdr:txBody>
+    </cdr:sp>
+  </cdr:relSizeAnchor>
+</c:userShapes>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1624,10 +2732,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0330435F-CFA4-4199-A4B0-9BB2BA679022}">
-  <dimension ref="A1:X50"/>
+  <dimension ref="A1:X78"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A48" workbookViewId="0">
-      <selection activeCell="H71" sqref="H71"/>
+    <sheetView tabSelected="1" topLeftCell="A64" workbookViewId="0">
+      <selection activeCell="Q90" sqref="Q90"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2309,6 +3417,134 @@
         <v>22</v>
       </c>
     </row>
+    <row r="72" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A72" t="s">
+        <v>28</v>
+      </c>
+      <c r="B72" t="s">
+        <v>26</v>
+      </c>
+      <c r="C72" t="s">
+        <v>27</v>
+      </c>
+      <c r="E72" t="s">
+        <v>29</v>
+      </c>
+      <c r="F72" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A73">
+        <v>1000</v>
+      </c>
+      <c r="B73">
+        <v>104</v>
+      </c>
+      <c r="C73">
+        <f>1000-B73</f>
+        <v>896</v>
+      </c>
+      <c r="E73">
+        <f>C73/1000*100</f>
+        <v>89.600000000000009</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A74">
+        <v>30</v>
+      </c>
+      <c r="B74">
+        <v>104</v>
+      </c>
+      <c r="C74">
+        <v>896</v>
+      </c>
+      <c r="F74">
+        <v>0</v>
+      </c>
+      <c r="H74" t="s">
+        <v>31</v>
+      </c>
+      <c r="I74" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A75">
+        <v>40</v>
+      </c>
+      <c r="B75">
+        <v>178</v>
+      </c>
+      <c r="C75">
+        <f>1000-B75</f>
+        <v>822</v>
+      </c>
+      <c r="F75">
+        <v>5</v>
+      </c>
+      <c r="H75">
+        <f>C74/1000*100</f>
+        <v>89.600000000000009</v>
+      </c>
+      <c r="I75">
+        <v>93.373000000000005</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A76">
+        <v>50</v>
+      </c>
+      <c r="B76">
+        <v>133</v>
+      </c>
+      <c r="C76">
+        <f>1000-B76</f>
+        <v>867</v>
+      </c>
+      <c r="F76">
+        <v>9</v>
+      </c>
+      <c r="H76">
+        <f>C75/1000*100</f>
+        <v>82.199999999999989</v>
+      </c>
+      <c r="I76">
+        <v>82.7</v>
+      </c>
+    </row>
+    <row r="77" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A77">
+        <v>60</v>
+      </c>
+      <c r="B77">
+        <v>92</v>
+      </c>
+      <c r="C77">
+        <f>1000-B77</f>
+        <v>908</v>
+      </c>
+      <c r="F77">
+        <v>10</v>
+      </c>
+      <c r="H77">
+        <f>C76/1000*100</f>
+        <v>86.7</v>
+      </c>
+      <c r="I77">
+        <v>67.954999999999998</v>
+      </c>
+    </row>
+    <row r="78" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="H78">
+        <f>C77/1000*100</f>
+        <v>90.8</v>
+      </c>
+      <c r="I78">
+        <v>49</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
